--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterViewTest\TestProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88CC714-6D67-4E14-9242-AE6CC0DDCB78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3199C4C0-2241-49C8-B13D-E8964D06F355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{E4806ACA-9DD4-482A-883E-692882155DED}"/>
+    <workbookView xWindow="5760" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{1B930C65-7D84-4A8F-A438-68B5EFA0F00C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t>werqwer</t>
   </si>
   <si>
@@ -154,6 +151,159 @@
   </si>
   <si>
     <t>sdfasd</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>saa</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>dfsdf3143</t>
+  </si>
+  <si>
+    <t>1asdf</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>dfasdfadf</t>
+  </si>
+  <si>
+    <t>sdfaf</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>asdfsad</t>
+  </si>
+  <si>
+    <t>eqrqwer</t>
+  </si>
+  <si>
+    <t>qwere</t>
+  </si>
+  <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>adfds</t>
+  </si>
+  <si>
+    <t>dfasd</t>
+  </si>
+  <si>
+    <t>fasdfasd</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>dfasdf</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>adfa</t>
+  </si>
+  <si>
+    <t>dddd@sad</t>
+  </si>
+  <si>
+    <t>dfa</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>dadfa</t>
+  </si>
+  <si>
+    <t>fas</t>
+  </si>
+  <si>
+    <t>dsfasdfad</t>
+  </si>
+  <si>
+    <t>dddddddd</t>
+  </si>
+  <si>
+    <t>fasdf</t>
+  </si>
+  <si>
+    <t>fasdfasdf</t>
+  </si>
+  <si>
+    <t>dffd</t>
+  </si>
+  <si>
+    <t>ffffffffffffffff</t>
+  </si>
+  <si>
+    <t>fdsafd</t>
+  </si>
+  <si>
+    <t>adfasdf</t>
+  </si>
+  <si>
+    <t>werwe</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>twer</t>
+  </si>
+  <si>
+    <t>erre</t>
+  </si>
+  <si>
+    <t>adfsd</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>dfsdfsdf</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>k@qq.com</t>
+  </si>
+  <si>
+    <t>204-209-2209</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>dsfasdf</t>
+  </si>
+  <si>
+    <t>kk@qq.com</t>
+  </si>
+  <si>
+    <t>204-209-9903</t>
+  </si>
+  <si>
+    <t>dsfsd</t>
   </si>
 </sst>
 </file>
@@ -189,9 +339,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,14 +656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47CA232-0571-4AAB-8D1D-D894E89B805B}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29312009-4A39-4A34-96CE-F5831405D9FE}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,172 +691,561 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
       </c>
       <c r="I7">
         <v>3452342</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>43628.479581307867</v>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>23452345</v>
       </c>
       <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43628.830675983794</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>23412</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43628.852412962966</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>435234</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43628.853941539353</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>235423</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43628.857792048613</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>3452345234</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43628.859578171294</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13">
+        <v>2345234</v>
+      </c>
+      <c r="I13">
+        <v>345234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43500.880462962959</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>2345234</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43628.888070162036</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>314213412</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43628.891016296293</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>3245234</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43628.898367083333</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>23452345</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43628.927943657407</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>413423</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43628.938654328704</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43628.972366689813</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>22444.986967592591</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterViewTest\TestProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B343C-080B-421B-86C1-DD1B5B9E4F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50809A9-C211-4903-8756-94496CA35D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{DE6C0B6F-84EA-4CAE-B129-8A002009A1E9}"/>
+    <workbookView xWindow="5760" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{C504961E-33AA-4DD3-946D-1A3095A1A857}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +139,87 @@
   </si>
   <si>
     <t>204-222-9990</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>tome@gmail.com</t>
+  </si>
+  <si>
+    <t>204-229-9990</t>
+  </si>
+  <si>
+    <t>Tom2</t>
+  </si>
+  <si>
+    <t>dsdsdf</t>
+  </si>
+  <si>
+    <t>kevie</t>
+  </si>
+  <si>
+    <t>ke@gmail.com</t>
+  </si>
+  <si>
+    <t>333-333-3333</t>
+  </si>
+  <si>
+    <t>helow</t>
+  </si>
+  <si>
+    <t>dsfadfd</t>
+  </si>
+  <si>
+    <t>sdfad</t>
+  </si>
+  <si>
+    <t>fasd</t>
+  </si>
+  <si>
+    <t>ddd@gmai.com</t>
+  </si>
+  <si>
+    <t>222-222-2222</t>
+  </si>
+  <si>
+    <t>adsfasdf</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>adfasdasdf</t>
+  </si>
+  <si>
+    <t>ddd@qq.com</t>
+  </si>
+  <si>
+    <t>asdfasd</t>
+  </si>
+  <si>
+    <t>tes11</t>
+  </si>
+  <si>
+    <t>asdfd</t>
+  </si>
+  <si>
+    <t>kk@qq.com</t>
+  </si>
+  <si>
+    <t>204-229-9902</t>
+  </si>
+  <si>
+    <t>sadfasdf</t>
+  </si>
+  <si>
+    <t>ddd@gmail.com</t>
+  </si>
+  <si>
+    <t>adfasdf</t>
   </si>
 </sst>
 </file>
@@ -173,9 +255,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,16 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B77A8-F259-4CF3-8E23-62E8F78CB750}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07792440-91BD-4184-9BB1-20FAC2C3DB16}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -750,6 +831,194 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43629.441604467589</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>33037.449571759258</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>33037.452592592592</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>33402.453993055555</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1">
+        <v>33037.477523148147</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1">
+        <v>165.48405092592591</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
+        <v>33768.486250000002</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
